--- a/source/TIER_2_full_classes/INTERACTION/interaction_matrix.xlsx
+++ b/source/TIER_2_full_classes/INTERACTION/interaction_matrix.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>GROUND_freeW_seb</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>IA_HEAT01_SEB11_vegetation</t>
+  </si>
+  <si>
+    <t>VEGETATION_CLM5_seb</t>
   </si>
 </sst>
 </file>
@@ -524,47 +527,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG67"/>
+  <dimension ref="A1:BG68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="M23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AE20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
+      <selection pane="bottomRight" activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="29.81640625" customWidth="1"/>
-    <col min="8" max="9" width="22.1796875" customWidth="1"/>
-    <col min="10" max="15" width="29.81640625" customWidth="1"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="29.85546875" customWidth="1"/>
+    <col min="8" max="9" width="22.140625" customWidth="1"/>
+    <col min="10" max="15" width="29.85546875" customWidth="1"/>
     <col min="16" max="16" width="45" customWidth="1"/>
-    <col min="17" max="21" width="29.81640625" customWidth="1"/>
-    <col min="22" max="22" width="26.26953125" customWidth="1"/>
-    <col min="23" max="23" width="28.1796875" customWidth="1"/>
-    <col min="24" max="25" width="22.26953125" customWidth="1"/>
-    <col min="26" max="26" width="27.7265625" customWidth="1"/>
-    <col min="27" max="28" width="25.453125" customWidth="1"/>
-    <col min="29" max="29" width="18.1796875" customWidth="1"/>
-    <col min="30" max="30" width="20.81640625" customWidth="1"/>
-    <col min="31" max="31" width="22.26953125" customWidth="1"/>
+    <col min="17" max="21" width="29.85546875" customWidth="1"/>
+    <col min="22" max="22" width="26.28515625" customWidth="1"/>
+    <col min="23" max="23" width="28.140625" customWidth="1"/>
+    <col min="24" max="25" width="22.28515625" customWidth="1"/>
+    <col min="26" max="26" width="27.7109375" customWidth="1"/>
+    <col min="27" max="28" width="25.42578125" customWidth="1"/>
+    <col min="29" max="29" width="18.140625" customWidth="1"/>
+    <col min="30" max="30" width="20.85546875" customWidth="1"/>
+    <col min="31" max="31" width="22.28515625" customWidth="1"/>
     <col min="32" max="33" width="25" customWidth="1"/>
-    <col min="34" max="34" width="25.1796875" customWidth="1"/>
-    <col min="35" max="35" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.140625" customWidth="1"/>
+    <col min="35" max="35" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -667,8 +671,11 @@
       <c r="AI2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -775,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -882,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -989,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1096,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1203,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1309,8 +1316,11 @@
       <c r="AI8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1416,8 +1426,11 @@
       <c r="AI9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1523,8 +1536,11 @@
       <c r="AI10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1630,8 +1646,11 @@
       <c r="AI11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1737,8 +1756,11 @@
       <c r="AI12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1844,8 +1866,11 @@
       <c r="AI13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1951,8 +1976,11 @@
       <c r="AI14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2058,8 +2086,11 @@
       <c r="AI15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2165,8 +2196,11 @@
       <c r="AI16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -2251,8 +2285,11 @@
       <c r="AI17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -2337,8 +2374,11 @@
       <c r="AI18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -2444,8 +2484,11 @@
       <c r="AI19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -2551,8 +2594,11 @@
       <c r="AI20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2658,8 +2704,11 @@
       <c r="AI21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2765,8 +2814,11 @@
       <c r="AI22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2872,8 +2924,11 @@
       <c r="AI23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2979,8 +3034,11 @@
       <c r="AI24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -3086,8 +3144,11 @@
       <c r="AI25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -3193,8 +3254,11 @@
       <c r="AI26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -3300,8 +3364,11 @@
       <c r="AI27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -3407,8 +3474,11 @@
       <c r="AI28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3514,8 +3584,11 @@
       <c r="AI29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -3621,8 +3694,11 @@
       <c r="AI30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -3728,8 +3804,11 @@
       <c r="AI31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -3835,8 +3914,11 @@
       <c r="AI32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -3942,8 +4024,11 @@
       <c r="AI33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -4049,8 +4134,11 @@
       <c r="AI34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -4156,8 +4244,11 @@
       <c r="AI35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -4263,120 +4354,153 @@
       <c r="AI36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>20</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A41">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>1</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>3</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
         <v>10</v>
-      </c>
-      <c r="AJ43">
-        <v>1</v>
-      </c>
-      <c r="AK43">
-        <v>0</v>
-      </c>
-      <c r="AL43">
-        <v>3</v>
-      </c>
-      <c r="AM43">
-        <v>3</v>
-      </c>
-      <c r="AN43">
-        <v>3</v>
-      </c>
-      <c r="AO43">
-        <v>3</v>
-      </c>
-      <c r="AP43">
-        <v>1</v>
-      </c>
-      <c r="AQ43">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>3</v>
-      </c>
-      <c r="AS43">
-        <v>3</v>
-      </c>
-      <c r="AT43">
-        <v>3</v>
-      </c>
-      <c r="AU43">
-        <v>3</v>
-      </c>
-      <c r="AV43">
-        <v>6</v>
-      </c>
-      <c r="AW43">
-        <v>6</v>
-      </c>
-      <c r="AX43">
-        <v>0</v>
-      </c>
-      <c r="AY43">
-        <v>0</v>
-      </c>
-      <c r="AZ43">
-        <v>0</v>
-      </c>
-      <c r="BA43">
-        <v>0</v>
-      </c>
-      <c r="BB43">
-        <v>0</v>
-      </c>
-      <c r="BC43">
-        <v>0</v>
-      </c>
-      <c r="BD43">
-        <v>0</v>
-      </c>
-      <c r="BE43">
-        <v>0</v>
-      </c>
-      <c r="BF43">
-        <v>0</v>
-      </c>
-      <c r="BG43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
       </c>
       <c r="AJ44">
         <v>1</v>
       </c>
       <c r="AK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44">
         <v>3</v>
@@ -4394,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44">
         <v>3</v>
@@ -4445,92 +4569,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ45">
+        <v>1</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>3</v>
+      </c>
+      <c r="AM45">
+        <v>3</v>
+      </c>
+      <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>3</v>
+      </c>
+      <c r="AP45">
+        <v>1</v>
+      </c>
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <v>3</v>
+      </c>
+      <c r="AS45">
+        <v>3</v>
+      </c>
+      <c r="AT45">
+        <v>3</v>
+      </c>
+      <c r="AU45">
+        <v>3</v>
+      </c>
+      <c r="AV45">
+        <v>6</v>
+      </c>
+      <c r="AW45">
+        <v>6</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>0</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BE45">
+        <v>0</v>
+      </c>
+      <c r="BF45">
+        <v>0</v>
+      </c>
+      <c r="BG45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>5</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>12</v>
-      </c>
-      <c r="AJ45">
-        <v>2</v>
-      </c>
-      <c r="AK45">
-        <v>0</v>
-      </c>
-      <c r="AL45">
-        <v>4</v>
-      </c>
-      <c r="AM45">
-        <v>4</v>
-      </c>
-      <c r="AN45">
-        <v>4</v>
-      </c>
-      <c r="AO45">
-        <v>4</v>
-      </c>
-      <c r="AP45">
-        <v>2</v>
-      </c>
-      <c r="AQ45">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>4</v>
-      </c>
-      <c r="AS45">
-        <v>4</v>
-      </c>
-      <c r="AT45">
-        <v>0</v>
-      </c>
-      <c r="AU45">
-        <v>0</v>
-      </c>
-      <c r="AV45">
-        <v>0</v>
-      </c>
-      <c r="AW45">
-        <v>0</v>
-      </c>
-      <c r="AX45">
-        <v>0</v>
-      </c>
-      <c r="AY45">
-        <v>0</v>
-      </c>
-      <c r="AZ45">
-        <v>0</v>
-      </c>
-      <c r="BA45">
-        <v>0</v>
-      </c>
-      <c r="BB45">
-        <v>0</v>
-      </c>
-      <c r="BC45">
-        <v>0</v>
-      </c>
-      <c r="BD45">
-        <v>0</v>
-      </c>
-      <c r="BE45">
-        <v>0</v>
-      </c>
-      <c r="BF45">
-        <v>0</v>
-      </c>
-      <c r="BG45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>6</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
       </c>
       <c r="AJ46">
         <v>2</v>
@@ -4542,13 +4666,13 @@
         <v>4</v>
       </c>
       <c r="AM46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN46">
         <v>4</v>
       </c>
       <c r="AO46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP46">
         <v>2</v>
@@ -4560,7 +4684,7 @@
         <v>4</v>
       </c>
       <c r="AS46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT46">
         <v>0</v>
@@ -4605,12 +4729,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AJ47">
         <v>2</v>
@@ -4622,10 +4746,10 @@
         <v>4</v>
       </c>
       <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
         <v>4</v>
-      </c>
-      <c r="AN47">
-        <v>0</v>
       </c>
       <c r="AO47">
         <v>0</v>
@@ -4640,7 +4764,7 @@
         <v>4</v>
       </c>
       <c r="AS47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT47">
         <v>0</v>
@@ -4685,12 +4809,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AJ48">
         <v>2</v>
@@ -4702,7 +4826,7 @@
         <v>4</v>
       </c>
       <c r="AM48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN48">
         <v>0</v>
@@ -4720,7 +4844,7 @@
         <v>4</v>
       </c>
       <c r="AS48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT48">
         <v>0</v>
@@ -4765,98 +4889,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ49">
+        <v>2</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>4</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>2</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>4</v>
+      </c>
+      <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>0</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>9</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>17</v>
-      </c>
-      <c r="AJ49">
-        <v>1</v>
-      </c>
-      <c r="AK49">
-        <v>0</v>
-      </c>
-      <c r="AL49">
-        <v>3</v>
-      </c>
-      <c r="AM49">
-        <v>3</v>
-      </c>
-      <c r="AN49">
-        <v>3</v>
-      </c>
-      <c r="AO49">
-        <v>3</v>
-      </c>
-      <c r="AP49">
-        <v>1</v>
-      </c>
-      <c r="AQ49">
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <v>3</v>
-      </c>
-      <c r="AS49">
-        <v>3</v>
-      </c>
-      <c r="AT49">
-        <v>3</v>
-      </c>
-      <c r="AU49">
-        <v>3</v>
-      </c>
-      <c r="AV49">
-        <v>6</v>
-      </c>
-      <c r="AW49">
-        <v>6</v>
-      </c>
-      <c r="AX49">
-        <v>0</v>
-      </c>
-      <c r="AY49">
-        <v>0</v>
-      </c>
-      <c r="AZ49">
-        <v>0</v>
-      </c>
-      <c r="BA49">
-        <v>0</v>
-      </c>
-      <c r="BB49">
-        <v>0</v>
-      </c>
-      <c r="BC49">
-        <v>0</v>
-      </c>
-      <c r="BD49">
-        <v>0</v>
-      </c>
-      <c r="BE49">
-        <v>0</v>
-      </c>
-      <c r="BF49">
-        <v>0</v>
-      </c>
-      <c r="BG49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>10</v>
-      </c>
-      <c r="B50" t="s">
-        <v>24</v>
       </c>
       <c r="AJ50">
         <v>1</v>
       </c>
       <c r="AK50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50">
         <v>3</v>
@@ -4874,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR50">
         <v>3</v>
@@ -4925,92 +5049,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ51">
+        <v>1</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>3</v>
+      </c>
+      <c r="AM51">
+        <v>3</v>
+      </c>
+      <c r="AN51">
+        <v>3</v>
+      </c>
+      <c r="AO51">
+        <v>3</v>
+      </c>
+      <c r="AP51">
+        <v>1</v>
+      </c>
+      <c r="AQ51">
+        <v>1</v>
+      </c>
+      <c r="AR51">
+        <v>3</v>
+      </c>
+      <c r="AS51">
+        <v>3</v>
+      </c>
+      <c r="AT51">
+        <v>3</v>
+      </c>
+      <c r="AU51">
+        <v>3</v>
+      </c>
+      <c r="AV51">
+        <v>6</v>
+      </c>
+      <c r="AW51">
+        <v>6</v>
+      </c>
+      <c r="AX51">
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <v>0</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>0</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BE51">
+        <v>0</v>
+      </c>
+      <c r="BF51">
+        <v>0</v>
+      </c>
+      <c r="BG51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>11</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>33</v>
-      </c>
-      <c r="AJ51">
-        <v>2</v>
-      </c>
-      <c r="AK51">
-        <v>0</v>
-      </c>
-      <c r="AL51">
-        <v>4</v>
-      </c>
-      <c r="AM51">
-        <v>4</v>
-      </c>
-      <c r="AN51">
-        <v>4</v>
-      </c>
-      <c r="AO51">
-        <v>4</v>
-      </c>
-      <c r="AP51">
-        <v>2</v>
-      </c>
-      <c r="AQ51">
-        <v>0</v>
-      </c>
-      <c r="AR51">
-        <v>4</v>
-      </c>
-      <c r="AS51">
-        <v>4</v>
-      </c>
-      <c r="AT51">
-        <v>0</v>
-      </c>
-      <c r="AU51">
-        <v>0</v>
-      </c>
-      <c r="AV51">
-        <v>0</v>
-      </c>
-      <c r="AW51">
-        <v>0</v>
-      </c>
-      <c r="AX51">
-        <v>0</v>
-      </c>
-      <c r="AY51">
-        <v>0</v>
-      </c>
-      <c r="AZ51">
-        <v>0</v>
-      </c>
-      <c r="BA51">
-        <v>0</v>
-      </c>
-      <c r="BB51">
-        <v>0</v>
-      </c>
-      <c r="BC51">
-        <v>0</v>
-      </c>
-      <c r="BD51">
-        <v>0</v>
-      </c>
-      <c r="BE51">
-        <v>0</v>
-      </c>
-      <c r="BF51">
-        <v>0</v>
-      </c>
-      <c r="BG51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52" t="s">
-        <v>34</v>
       </c>
       <c r="AJ52">
         <v>2</v>
@@ -5022,13 +5146,13 @@
         <v>4</v>
       </c>
       <c r="AM52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN52">
         <v>4</v>
       </c>
       <c r="AO52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP52">
         <v>2</v>
@@ -5040,7 +5164,7 @@
         <v>4</v>
       </c>
       <c r="AS52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT52">
         <v>0</v>
@@ -5085,252 +5209,252 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ53">
+        <v>2</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>4</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>4</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>2</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>4</v>
+      </c>
+      <c r="AS53">
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <v>0</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
+        <v>0</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>0</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>13</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>35</v>
       </c>
-      <c r="AJ53">
-        <v>2</v>
-      </c>
-      <c r="AK53">
-        <v>0</v>
-      </c>
-      <c r="AL53">
-        <v>0</v>
-      </c>
-      <c r="AM53">
-        <v>0</v>
-      </c>
-      <c r="AN53">
-        <v>0</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>2</v>
-      </c>
-      <c r="AQ53">
-        <v>0</v>
-      </c>
-      <c r="AR53">
-        <v>0</v>
-      </c>
-      <c r="AS53">
-        <v>0</v>
-      </c>
-      <c r="AT53">
-        <v>0</v>
-      </c>
-      <c r="AU53">
-        <v>0</v>
-      </c>
-      <c r="AV53">
-        <v>0</v>
-      </c>
-      <c r="AW53">
-        <v>0</v>
-      </c>
-      <c r="AX53">
-        <v>0</v>
-      </c>
-      <c r="AY53">
-        <v>0</v>
-      </c>
-      <c r="AZ53">
-        <v>0</v>
-      </c>
-      <c r="BA53">
-        <v>0</v>
-      </c>
-      <c r="BB53">
-        <v>0</v>
-      </c>
-      <c r="BC53">
-        <v>0</v>
-      </c>
-      <c r="BD53">
-        <v>0</v>
-      </c>
-      <c r="BE53">
-        <v>0</v>
-      </c>
-      <c r="BF53">
-        <v>0</v>
-      </c>
-      <c r="BG53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A54">
+      <c r="AJ54">
+        <v>2</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>2</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <v>0</v>
+      </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <v>0</v>
+      </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
+      <c r="BD54">
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>0</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>14</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>44</v>
       </c>
-      <c r="AJ54">
-        <v>2</v>
-      </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
-      <c r="AM54">
-        <v>0</v>
-      </c>
-      <c r="AN54">
-        <v>0</v>
-      </c>
-      <c r="AO54">
-        <v>0</v>
-      </c>
-      <c r="AP54">
-        <v>2</v>
-      </c>
-      <c r="AQ54">
-        <v>0</v>
-      </c>
-      <c r="AR54">
-        <v>0</v>
-      </c>
-      <c r="AS54">
-        <v>0</v>
-      </c>
-      <c r="AT54">
-        <v>0</v>
-      </c>
-      <c r="AU54">
-        <v>0</v>
-      </c>
-      <c r="AV54">
-        <v>0</v>
-      </c>
-      <c r="AW54">
-        <v>0</v>
-      </c>
-      <c r="AX54">
-        <v>0</v>
-      </c>
-      <c r="AY54">
-        <v>0</v>
-      </c>
-      <c r="AZ54">
-        <v>0</v>
-      </c>
-      <c r="BA54">
-        <v>0</v>
-      </c>
-      <c r="BB54">
-        <v>0</v>
-      </c>
-      <c r="BC54">
-        <v>0</v>
-      </c>
-      <c r="BD54">
-        <v>0</v>
-      </c>
-      <c r="BE54">
-        <v>0</v>
-      </c>
-      <c r="BF54">
-        <v>0</v>
-      </c>
-      <c r="BG54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A55">
+      <c r="AJ55">
+        <v>2</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>2</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <v>0</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>0</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>0</v>
+      </c>
+      <c r="BG55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>15</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>45</v>
-      </c>
-      <c r="AJ55">
-        <v>5</v>
-      </c>
-      <c r="AK55">
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
-      <c r="AM55">
-        <v>0</v>
-      </c>
-      <c r="AN55">
-        <v>0</v>
-      </c>
-      <c r="AO55">
-        <v>0</v>
-      </c>
-      <c r="AP55">
-        <v>5</v>
-      </c>
-      <c r="AQ55">
-        <v>0</v>
-      </c>
-      <c r="AR55">
-        <v>0</v>
-      </c>
-      <c r="AS55">
-        <v>0</v>
-      </c>
-      <c r="AT55">
-        <v>0</v>
-      </c>
-      <c r="AU55">
-        <v>0</v>
-      </c>
-      <c r="AV55">
-        <v>0</v>
-      </c>
-      <c r="AW55">
-        <v>0</v>
-      </c>
-      <c r="AX55">
-        <v>0</v>
-      </c>
-      <c r="AY55">
-        <v>0</v>
-      </c>
-      <c r="AZ55">
-        <v>0</v>
-      </c>
-      <c r="BA55">
-        <v>0</v>
-      </c>
-      <c r="BB55">
-        <v>0</v>
-      </c>
-      <c r="BC55">
-        <v>0</v>
-      </c>
-      <c r="BD55">
-        <v>0</v>
-      </c>
-      <c r="BE55">
-        <v>0</v>
-      </c>
-      <c r="BF55">
-        <v>0</v>
-      </c>
-      <c r="BG55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>16</v>
-      </c>
-      <c r="B56" t="s">
-        <v>46</v>
       </c>
       <c r="AJ56">
         <v>5</v>
@@ -5405,92 +5529,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ57">
+        <v>5</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>5</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
+      <c r="AS57">
+        <v>0</v>
+      </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
+        <v>0</v>
+      </c>
+      <c r="AW57">
+        <v>0</v>
+      </c>
+      <c r="AX57">
+        <v>0</v>
+      </c>
+      <c r="AY57">
+        <v>0</v>
+      </c>
+      <c r="AZ57">
+        <v>0</v>
+      </c>
+      <c r="BA57">
+        <v>0</v>
+      </c>
+      <c r="BB57">
+        <v>0</v>
+      </c>
+      <c r="BC57">
+        <v>0</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>17</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>47</v>
-      </c>
-      <c r="AJ57">
-        <v>1</v>
-      </c>
-      <c r="AK57">
-        <v>1</v>
-      </c>
-      <c r="AL57">
-        <v>0</v>
-      </c>
-      <c r="AM57">
-        <v>0</v>
-      </c>
-      <c r="AN57">
-        <v>0</v>
-      </c>
-      <c r="AO57">
-        <v>0</v>
-      </c>
-      <c r="AP57">
-        <v>1</v>
-      </c>
-      <c r="AQ57">
-        <v>1</v>
-      </c>
-      <c r="AR57">
-        <v>0</v>
-      </c>
-      <c r="AS57">
-        <v>0</v>
-      </c>
-      <c r="AT57">
-        <v>0</v>
-      </c>
-      <c r="AU57">
-        <v>0</v>
-      </c>
-      <c r="AV57">
-        <v>0</v>
-      </c>
-      <c r="AW57">
-        <v>0</v>
-      </c>
-      <c r="AX57">
-        <v>0</v>
-      </c>
-      <c r="AY57">
-        <v>0</v>
-      </c>
-      <c r="AZ57">
-        <v>101</v>
-      </c>
-      <c r="BA57">
-        <v>0</v>
-      </c>
-      <c r="BB57">
-        <v>0</v>
-      </c>
-      <c r="BC57">
-        <v>0</v>
-      </c>
-      <c r="BD57">
-        <v>0</v>
-      </c>
-      <c r="BE57">
-        <v>0</v>
-      </c>
-      <c r="BF57">
-        <v>0</v>
-      </c>
-      <c r="BG57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>18</v>
-      </c>
-      <c r="B58" t="s">
-        <v>48</v>
       </c>
       <c r="AJ58">
         <v>1</v>
@@ -5565,175 +5689,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ59">
+        <v>1</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>0</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>1</v>
+      </c>
+      <c r="AQ59">
+        <v>1</v>
+      </c>
+      <c r="AR59">
+        <v>0</v>
+      </c>
+      <c r="AS59">
+        <v>0</v>
+      </c>
+      <c r="AT59">
+        <v>0</v>
+      </c>
+      <c r="AU59">
+        <v>0</v>
+      </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
+      <c r="AW59">
+        <v>0</v>
+      </c>
+      <c r="AX59">
+        <v>0</v>
+      </c>
+      <c r="AY59">
+        <v>0</v>
+      </c>
+      <c r="AZ59">
+        <v>101</v>
+      </c>
+      <c r="BA59">
+        <v>0</v>
+      </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
+      <c r="BC59">
+        <v>0</v>
+      </c>
+      <c r="BD59">
+        <v>0</v>
+      </c>
+      <c r="BE59">
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <v>0</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>19</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>49</v>
       </c>
-      <c r="AJ59">
+      <c r="AJ60">
         <v>7</v>
       </c>
-      <c r="AK59">
+      <c r="AK60">
         <v>7</v>
       </c>
-      <c r="AL59">
-        <v>0</v>
-      </c>
-      <c r="AM59">
-        <v>0</v>
-      </c>
-      <c r="AN59">
-        <v>0</v>
-      </c>
-      <c r="AO59">
-        <v>0</v>
-      </c>
-      <c r="AP59">
+      <c r="AL60">
+        <v>0</v>
+      </c>
+      <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
         <v>7</v>
       </c>
-      <c r="AQ59">
+      <c r="AQ60">
         <v>7</v>
       </c>
-      <c r="AR59">
-        <v>0</v>
-      </c>
-      <c r="AS59">
-        <v>0</v>
-      </c>
-      <c r="AT59">
-        <v>0</v>
-      </c>
-      <c r="AU59">
-        <v>0</v>
-      </c>
-      <c r="AV59">
-        <v>0</v>
-      </c>
-      <c r="AW59">
-        <v>0</v>
-      </c>
-      <c r="AX59">
+      <c r="AR60">
+        <v>0</v>
+      </c>
+      <c r="AS60">
+        <v>0</v>
+      </c>
+      <c r="AT60">
+        <v>0</v>
+      </c>
+      <c r="AU60">
+        <v>0</v>
+      </c>
+      <c r="AV60">
+        <v>0</v>
+      </c>
+      <c r="AW60">
+        <v>0</v>
+      </c>
+      <c r="AX60">
         <v>101</v>
       </c>
-      <c r="AY59">
+      <c r="AY60">
         <v>101</v>
       </c>
-      <c r="AZ59">
-        <v>0</v>
-      </c>
-      <c r="BA59">
-        <v>0</v>
-      </c>
-      <c r="BB59">
-        <v>0</v>
-      </c>
-      <c r="BC59">
-        <v>0</v>
-      </c>
-      <c r="BD59">
-        <v>0</v>
-      </c>
-      <c r="BE59">
-        <v>0</v>
-      </c>
-      <c r="BF59">
-        <v>0</v>
-      </c>
-      <c r="BG59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A60">
+      <c r="AZ60">
+        <v>0</v>
+      </c>
+      <c r="BA60">
+        <v>0</v>
+      </c>
+      <c r="BB60">
+        <v>0</v>
+      </c>
+      <c r="BC60">
+        <v>0</v>
+      </c>
+      <c r="BD60">
+        <v>0</v>
+      </c>
+      <c r="BE60">
+        <v>0</v>
+      </c>
+      <c r="BF60">
+        <v>0</v>
+      </c>
+      <c r="BG60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>20</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="AJ61">
-        <v>8</v>
-      </c>
-      <c r="AK61">
-        <v>8</v>
-      </c>
-      <c r="AL61">
-        <v>9</v>
-      </c>
-      <c r="AM61">
-        <v>9</v>
-      </c>
-      <c r="AN61">
-        <v>9</v>
-      </c>
-      <c r="AO61">
-        <v>9</v>
-      </c>
-      <c r="AP61">
-        <v>8</v>
-      </c>
-      <c r="AQ61">
-        <v>8</v>
-      </c>
-      <c r="AR61">
-        <v>9</v>
-      </c>
-      <c r="AS61">
-        <v>9</v>
-      </c>
-      <c r="AT61">
-        <v>13</v>
-      </c>
-      <c r="AU61">
-        <v>13</v>
-      </c>
-      <c r="AV61">
-        <v>0</v>
-      </c>
-      <c r="AW61">
-        <v>0</v>
-      </c>
-      <c r="AX61">
-        <v>0</v>
-      </c>
-      <c r="AY61">
-        <v>0</v>
-      </c>
-      <c r="AZ61">
-        <v>0</v>
-      </c>
-      <c r="BA61">
-        <v>101</v>
-      </c>
-      <c r="BB61">
-        <v>101</v>
-      </c>
-      <c r="BC61">
-        <v>101</v>
-      </c>
-      <c r="BD61">
-        <v>0</v>
-      </c>
-      <c r="BE61">
-        <v>0</v>
-      </c>
-      <c r="BF61">
-        <v>0</v>
-      </c>
-      <c r="BG61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>101</v>
-      </c>
-      <c r="B62" t="s">
-        <v>36</v>
-      </c>
+    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AJ62">
         <v>8</v>
       </c>
@@ -5807,7 +5931,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>101</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
       <c r="AJ63">
         <v>8</v>
       </c>
@@ -5881,129 +6011,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AJ64">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK64">
+        <v>8</v>
+      </c>
+      <c r="AL64">
+        <v>9</v>
+      </c>
+      <c r="AM64">
+        <v>9</v>
+      </c>
+      <c r="AN64">
+        <v>9</v>
+      </c>
+      <c r="AO64">
+        <v>9</v>
+      </c>
+      <c r="AP64">
+        <v>8</v>
+      </c>
+      <c r="AQ64">
+        <v>8</v>
+      </c>
+      <c r="AR64">
+        <v>9</v>
+      </c>
+      <c r="AS64">
+        <v>9</v>
+      </c>
+      <c r="AT64">
+        <v>13</v>
+      </c>
+      <c r="AU64">
+        <v>13</v>
+      </c>
+      <c r="AV64">
+        <v>0</v>
+      </c>
+      <c r="AW64">
+        <v>0</v>
+      </c>
+      <c r="AX64">
+        <v>0</v>
+      </c>
+      <c r="AY64">
+        <v>0</v>
+      </c>
+      <c r="AZ64">
+        <v>0</v>
+      </c>
+      <c r="BA64">
+        <v>101</v>
+      </c>
+      <c r="BB64">
+        <v>101</v>
+      </c>
+      <c r="BC64">
+        <v>101</v>
+      </c>
+      <c r="BD64">
+        <v>0</v>
+      </c>
+      <c r="BE64">
+        <v>0</v>
+      </c>
+      <c r="BF64">
+        <v>0</v>
+      </c>
+      <c r="BG64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="36:59" x14ac:dyDescent="0.25">
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
         <v>1</v>
       </c>
-      <c r="AL64">
-        <v>0</v>
-      </c>
-      <c r="AM64">
-        <v>3</v>
-      </c>
-      <c r="AN64">
-        <v>0</v>
-      </c>
-      <c r="AO64">
-        <v>3</v>
-      </c>
-      <c r="AP64">
-        <v>0</v>
-      </c>
-      <c r="AQ64">
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65">
+        <v>3</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>3</v>
+      </c>
+      <c r="AP65">
+        <v>0</v>
+      </c>
+      <c r="AQ65">
         <v>1</v>
       </c>
-      <c r="AR64">
-        <v>0</v>
-      </c>
-      <c r="AS64">
-        <v>3</v>
-      </c>
-      <c r="AT64">
-        <v>0</v>
-      </c>
-      <c r="AU64">
-        <v>3</v>
-      </c>
-      <c r="AV64">
-        <v>0</v>
-      </c>
-      <c r="AW64">
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <v>3</v>
+      </c>
+      <c r="AT65">
+        <v>0</v>
+      </c>
+      <c r="AU65">
+        <v>3</v>
+      </c>
+      <c r="AV65">
+        <v>0</v>
+      </c>
+      <c r="AW65">
         <v>1</v>
       </c>
-      <c r="AX64">
-        <v>0</v>
-      </c>
-      <c r="AY64">
+      <c r="AX65">
+        <v>0</v>
+      </c>
+      <c r="AY65">
         <v>1</v>
       </c>
-      <c r="AZ64">
-        <v>0</v>
-      </c>
-      <c r="BA64">
-        <v>0</v>
-      </c>
-      <c r="BB64">
-        <v>3</v>
-      </c>
-      <c r="BC64">
-        <v>0</v>
-      </c>
-      <c r="BD64">
-        <v>0</v>
-      </c>
-      <c r="BE64">
-        <v>0</v>
-      </c>
-      <c r="BF64">
-        <v>0</v>
-      </c>
-      <c r="BG64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="36:59" x14ac:dyDescent="0.35">
-      <c r="AJ65">
-        <v>0</v>
-      </c>
-      <c r="AK65">
-        <v>2</v>
-      </c>
-      <c r="AL65">
-        <v>0</v>
-      </c>
-      <c r="AM65">
-        <v>10</v>
-      </c>
-      <c r="AN65">
-        <v>0</v>
-      </c>
-      <c r="AO65">
-        <v>10</v>
-      </c>
-      <c r="AP65">
-        <v>0</v>
-      </c>
-      <c r="AQ65">
-        <v>2</v>
-      </c>
-      <c r="AR65">
-        <v>0</v>
-      </c>
-      <c r="AS65">
-        <v>10</v>
-      </c>
-      <c r="AT65">
-        <v>0</v>
-      </c>
-      <c r="AU65">
-        <v>11</v>
-      </c>
-      <c r="AV65">
-        <v>0</v>
-      </c>
-      <c r="AW65">
-        <v>2</v>
-      </c>
-      <c r="AX65">
-        <v>0</v>
-      </c>
-      <c r="AY65">
-        <v>2</v>
-      </c>
       <c r="AZ65">
         <v>0</v>
       </c>
@@ -6011,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="BB65">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BC65">
         <v>0</v>
@@ -6029,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="36:59" x14ac:dyDescent="0.35">
+    <row r="66" spans="36:59" x14ac:dyDescent="0.25">
       <c r="AJ66">
         <v>0</v>
       </c>
@@ -6103,36 +6233,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="36:59" x14ac:dyDescent="0.35">
+    <row r="67" spans="36:59" x14ac:dyDescent="0.25">
       <c r="AJ67">
         <v>0</v>
       </c>
       <c r="AK67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL67">
         <v>0</v>
       </c>
       <c r="AM67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN67">
         <v>0</v>
       </c>
       <c r="AO67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP67">
         <v>0</v>
       </c>
       <c r="AQ67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR67">
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT67">
         <v>0</v>
@@ -6144,13 +6274,13 @@
         <v>0</v>
       </c>
       <c r="AW67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX67">
         <v>0</v>
       </c>
       <c r="AY67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ67">
         <v>0</v>
@@ -6174,6 +6304,80 @@
         <v>0</v>
       </c>
       <c r="BG67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="36:59" x14ac:dyDescent="0.25">
+      <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>0</v>
+      </c>
+      <c r="AQ68">
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <v>0</v>
+      </c>
+      <c r="AS68">
+        <v>0</v>
+      </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
+      <c r="AU68">
+        <v>11</v>
+      </c>
+      <c r="AV68">
+        <v>0</v>
+      </c>
+      <c r="AW68">
+        <v>0</v>
+      </c>
+      <c r="AX68">
+        <v>0</v>
+      </c>
+      <c r="AY68">
+        <v>0</v>
+      </c>
+      <c r="AZ68">
+        <v>0</v>
+      </c>
+      <c r="BA68">
+        <v>0</v>
+      </c>
+      <c r="BB68">
+        <v>12</v>
+      </c>
+      <c r="BC68">
+        <v>0</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>0</v>
+      </c>
+      <c r="BG68">
         <v>0</v>
       </c>
     </row>

--- a/source/TIER_2_full_classes/INTERACTION/interaction_matrix.xlsx
+++ b/source/TIER_2_full_classes/INTERACTION/interaction_matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kant\geo-geohyd-u1\robinbz\Dokumenter\GitHub\CryoGrid\source\TIER_2_full_classes\INTERACTION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kant\geo-geohyd-u1\sebaswe\git\CryoGrid\modules\TIER_2_full_classes\INTERACTION\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>GROUND_freeW_seb</t>
   </si>
@@ -183,24 +183,6 @@
   </si>
   <si>
     <t>SNOW_crocus_bucketW_seb_vegetation</t>
-  </si>
-  <si>
-    <t>GROUND_freezeC_RichardsEqW_simpleVegetation_seb</t>
-  </si>
-  <si>
-    <t>GROUND_freezeC_RichardsEqW_simpleVegetation_seb_snow</t>
-  </si>
-  <si>
-    <t>VEGETATION_simlpeShading_seb</t>
-  </si>
-  <si>
-    <t>VEGETATION_simpleShading_seb</t>
-  </si>
-  <si>
-    <t>IA_HEAT01_SEB11_vegetation</t>
-  </si>
-  <si>
-    <t>VEGETATION_CLM5_seb</t>
   </si>
 </sst>
 </file>
@@ -527,48 +509,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG68"/>
+  <dimension ref="A1:BE63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AE20" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ2" sqref="AJ2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE3" sqref="AE3:AE33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="29.85546875" customWidth="1"/>
+    <col min="2" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="7" width="29.85546875" customWidth="1"/>
     <col min="8" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="15" width="29.85546875" customWidth="1"/>
-    <col min="16" max="16" width="45" customWidth="1"/>
-    <col min="17" max="21" width="29.85546875" customWidth="1"/>
-    <col min="22" max="22" width="26.28515625" customWidth="1"/>
-    <col min="23" max="23" width="28.140625" customWidth="1"/>
-    <col min="24" max="25" width="22.28515625" customWidth="1"/>
-    <col min="26" max="26" width="27.7109375" customWidth="1"/>
-    <col min="27" max="28" width="25.42578125" customWidth="1"/>
-    <col min="29" max="29" width="18.140625" customWidth="1"/>
-    <col min="30" max="30" width="20.85546875" customWidth="1"/>
-    <col min="31" max="31" width="22.28515625" customWidth="1"/>
-    <col min="32" max="33" width="25" customWidth="1"/>
-    <col min="34" max="34" width="25.140625" customWidth="1"/>
-    <col min="35" max="35" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.42578125" customWidth="1"/>
+    <col min="10" max="19" width="29.85546875" customWidth="1"/>
+    <col min="20" max="20" width="26.28515625" customWidth="1"/>
+    <col min="21" max="21" width="28.140625" customWidth="1"/>
+    <col min="22" max="23" width="22.28515625" customWidth="1"/>
+    <col min="24" max="24" width="27.7109375" customWidth="1"/>
+    <col min="25" max="26" width="25.42578125" customWidth="1"/>
+    <col min="27" max="27" width="18.140625" customWidth="1"/>
+    <col min="28" max="28" width="20.85546875" customWidth="1"/>
+    <col min="29" max="29" width="22.28515625" customWidth="1"/>
+    <col min="30" max="31" width="25" customWidth="1"/>
+    <col min="32" max="32" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -612,70 +585,58 @@
         <v>41</v>
       </c>
       <c r="P2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="S2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="V2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AC2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AD2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="AF2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH2" t="s">
         <v>37</v>
       </c>
-      <c r="AI2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -734,16 +695,16 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -772,17 +733,8 @@
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -841,16 +793,16 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -879,17 +831,8 @@
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -986,17 +929,8 @@
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1093,17 +1027,8 @@
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1200,17 +1125,8 @@
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1307,20 +1223,8 @@
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1379,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1417,20 +1321,8 @@
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1489,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1527,20 +1419,8 @@
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1637,20 +1517,8 @@
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1747,20 +1615,8 @@
       <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1857,20 +1713,8 @@
       <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1967,20 +1811,8 @@
       <c r="AF14">
         <v>0</v>
       </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2077,20 +1909,8 @@
       <c r="AF15">
         <v>0</v>
       </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2187,22 +2007,10 @@
       <c r="AF16">
         <v>0</v>
       </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -2282,16 +2090,25 @@
       <c r="AA17">
         <v>0</v>
       </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -2371,16 +2188,25 @@
       <c r="AA18">
         <v>0</v>
       </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -2475,22 +2301,10 @@
       <c r="AF19">
         <v>0</v>
       </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -2585,28 +2399,16 @@
       <c r="AF20">
         <v>0</v>
       </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2621,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2695,28 +2497,16 @@
       <c r="AF21">
         <v>0</v>
       </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2731,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2805,28 +2595,16 @@
       <c r="AF22">
         <v>0</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
         <v>1</v>
       </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2841,10 +2619,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2889,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2915,28 +2693,16 @@
       <c r="AF23">
         <v>0</v>
       </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2951,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2999,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -3025,28 +2791,16 @@
       <c r="AF24">
         <v>0</v>
       </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3061,10 +2815,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3103,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -3115,120 +2869,108 @@
         <v>0</v>
       </c>
       <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>9</v>
+      </c>
+      <c r="L26">
+        <v>13</v>
+      </c>
+      <c r="M26">
+        <v>13</v>
+      </c>
+      <c r="N26">
+        <v>16</v>
+      </c>
+      <c r="O26">
+        <v>16</v>
+      </c>
+      <c r="P26">
+        <v>16</v>
+      </c>
+      <c r="Q26">
+        <v>16</v>
+      </c>
+      <c r="R26">
+        <v>19</v>
+      </c>
+      <c r="S26">
+        <v>19</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
         <v>101</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
       </c>
       <c r="Z26">
         <v>101</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3245,76 +2987,64 @@
       <c r="AF26">
         <v>0</v>
       </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -3329,16 +3059,16 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>101</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -3355,22 +3085,10 @@
       <c r="AF27">
         <v>0</v>
       </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -3421,16 +3139,16 @@
         <v>16</v>
       </c>
       <c r="R28">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S28">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T28">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3442,19 +3160,19 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AA28">
         <v>101</v>
       </c>
       <c r="AB28">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -3465,88 +3183,76 @@
       <c r="AF28">
         <v>0</v>
       </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P29">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="R29">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="T29">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -3555,16 +3261,16 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA29">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -3575,88 +3281,76 @@
       <c r="AF29">
         <v>0</v>
       </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>11</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
         <v>15</v>
       </c>
-      <c r="B30">
-        <v>8</v>
-      </c>
-      <c r="C30">
-        <v>8</v>
-      </c>
-      <c r="D30">
-        <v>9</v>
-      </c>
-      <c r="E30">
-        <v>9</v>
-      </c>
-      <c r="F30">
-        <v>9</v>
-      </c>
-      <c r="G30">
-        <v>9</v>
-      </c>
-      <c r="H30">
-        <v>8</v>
-      </c>
-      <c r="I30">
-        <v>8</v>
-      </c>
-      <c r="J30">
-        <v>9</v>
-      </c>
-      <c r="K30">
-        <v>9</v>
-      </c>
-      <c r="L30">
-        <v>13</v>
-      </c>
-      <c r="M30">
-        <v>13</v>
-      </c>
-      <c r="N30">
-        <v>16</v>
-      </c>
-      <c r="O30">
-        <v>16</v>
-      </c>
       <c r="P30">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R30">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T30">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -3665,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA30">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -3685,103 +3379,91 @@
       <c r="AF30">
         <v>0</v>
       </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>11</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>15</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>15</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
         <v>18</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>3</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>3</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>3</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>3</v>
-      </c>
       <c r="T31">
         <v>0</v>
       </c>
       <c r="U31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X31">
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA31">
         <v>0</v>
       </c>
       <c r="AB31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -3795,22 +3477,10 @@
       <c r="AF31">
         <v>0</v>
       </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3864,13 +3534,13 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3882,16 +3552,16 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA32">
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -3905,46 +3575,34 @@
       <c r="AF32">
         <v>0</v>
       </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3974,853 +3632,727 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
       <c r="U33">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
       <c r="W33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X33">
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA33">
         <v>0</v>
       </c>
       <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH40">
+        <v>1</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>3</v>
+      </c>
+      <c r="AK40">
+        <v>3</v>
+      </c>
+      <c r="AL40">
+        <v>3</v>
+      </c>
+      <c r="AM40">
+        <v>3</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>3</v>
+      </c>
+      <c r="AQ40">
+        <v>3</v>
+      </c>
+      <c r="AR40">
+        <v>3</v>
+      </c>
+      <c r="AS40">
+        <v>3</v>
+      </c>
+      <c r="AT40">
+        <v>6</v>
+      </c>
+      <c r="AU40">
+        <v>6</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
+      </c>
+      <c r="AJ41">
+        <v>3</v>
+      </c>
+      <c r="AK41">
+        <v>3</v>
+      </c>
+      <c r="AL41">
+        <v>3</v>
+      </c>
+      <c r="AM41">
+        <v>3</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+      <c r="AP41">
+        <v>3</v>
+      </c>
+      <c r="AQ41">
+        <v>3</v>
+      </c>
+      <c r="AR41">
+        <v>3</v>
+      </c>
+      <c r="AS41">
+        <v>3</v>
+      </c>
+      <c r="AT41">
+        <v>6</v>
+      </c>
+      <c r="AU41">
+        <v>6</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
         <v>12</v>
       </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
+      <c r="AH42">
+        <v>2</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>4</v>
+      </c>
+      <c r="AK42">
+        <v>4</v>
+      </c>
+      <c r="AL42">
+        <v>4</v>
+      </c>
+      <c r="AM42">
+        <v>4</v>
+      </c>
+      <c r="AN42">
+        <v>2</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>4</v>
+      </c>
+      <c r="AQ42">
+        <v>4</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>0</v>
+      </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BE42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH43">
+        <v>2</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>4</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>4</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>2</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>4</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>0</v>
+      </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>0</v>
+      </c>
+      <c r="AW43">
+        <v>0</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>0</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH44">
+        <v>2</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>4</v>
+      </c>
+      <c r="AK44">
+        <v>4</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>2</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>4</v>
+      </c>
+      <c r="AQ44">
+        <v>4</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>0</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BC44">
+        <v>0</v>
+      </c>
+      <c r="BD44">
+        <v>0</v>
+      </c>
+      <c r="BE44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH45">
+        <v>2</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>4</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>4</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>0</v>
+      </c>
+      <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>0</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BE45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH46">
+        <v>1</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>3</v>
+      </c>
+      <c r="AK46">
+        <v>3</v>
+      </c>
+      <c r="AL46">
+        <v>3</v>
+      </c>
+      <c r="AM46">
+        <v>3</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>3</v>
+      </c>
+      <c r="AQ46">
+        <v>3</v>
+      </c>
+      <c r="AR46">
+        <v>3</v>
+      </c>
+      <c r="AS46">
+        <v>3</v>
+      </c>
+      <c r="AT46">
+        <v>6</v>
+      </c>
+      <c r="AU46">
+        <v>6</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>10</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>10</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>10</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH47">
+        <v>1</v>
+      </c>
+      <c r="AI47">
+        <v>1</v>
+      </c>
+      <c r="AJ47">
+        <v>3</v>
+      </c>
+      <c r="AK47">
+        <v>3</v>
+      </c>
+      <c r="AL47">
+        <v>3</v>
+      </c>
+      <c r="AM47">
+        <v>3</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>3</v>
+      </c>
+      <c r="AQ47">
+        <v>3</v>
+      </c>
+      <c r="AR47">
+        <v>3</v>
+      </c>
+      <c r="AS47">
+        <v>3</v>
+      </c>
+      <c r="AT47">
+        <v>6</v>
+      </c>
+      <c r="AU47">
+        <v>6</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>0</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>11</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>15</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>15</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>15</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>18</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>2</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>2</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>12</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>10</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>11</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>15</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>15</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>15</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>18</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>12</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
-      <c r="AI35">
-        <v>0</v>
-      </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>20</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>20</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
-      <c r="AI37">
-        <v>0</v>
-      </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>3</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ44">
-        <v>1</v>
-      </c>
-      <c r="AK44">
-        <v>0</v>
-      </c>
-      <c r="AL44">
-        <v>3</v>
-      </c>
-      <c r="AM44">
-        <v>3</v>
-      </c>
-      <c r="AN44">
-        <v>3</v>
-      </c>
-      <c r="AO44">
-        <v>3</v>
-      </c>
-      <c r="AP44">
-        <v>1</v>
-      </c>
-      <c r="AQ44">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>3</v>
-      </c>
-      <c r="AS44">
-        <v>3</v>
-      </c>
-      <c r="AT44">
-        <v>3</v>
-      </c>
-      <c r="AU44">
-        <v>3</v>
-      </c>
-      <c r="AV44">
-        <v>6</v>
-      </c>
-      <c r="AW44">
-        <v>6</v>
-      </c>
-      <c r="AX44">
-        <v>0</v>
-      </c>
-      <c r="AY44">
-        <v>0</v>
-      </c>
-      <c r="AZ44">
-        <v>0</v>
-      </c>
-      <c r="BA44">
-        <v>0</v>
-      </c>
-      <c r="BB44">
-        <v>0</v>
-      </c>
-      <c r="BC44">
-        <v>0</v>
-      </c>
-      <c r="BD44">
-        <v>0</v>
-      </c>
-      <c r="BE44">
-        <v>0</v>
-      </c>
-      <c r="BF44">
-        <v>0</v>
-      </c>
-      <c r="BG44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH48">
+        <v>2</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
         <v>4</v>
       </c>
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ45">
-        <v>1</v>
-      </c>
-      <c r="AK45">
-        <v>1</v>
-      </c>
-      <c r="AL45">
-        <v>3</v>
-      </c>
-      <c r="AM45">
-        <v>3</v>
-      </c>
-      <c r="AN45">
-        <v>3</v>
-      </c>
-      <c r="AO45">
-        <v>3</v>
-      </c>
-      <c r="AP45">
-        <v>1</v>
-      </c>
-      <c r="AQ45">
-        <v>1</v>
-      </c>
-      <c r="AR45">
-        <v>3</v>
-      </c>
-      <c r="AS45">
-        <v>3</v>
-      </c>
-      <c r="AT45">
-        <v>3</v>
-      </c>
-      <c r="AU45">
-        <v>3</v>
-      </c>
-      <c r="AV45">
-        <v>6</v>
-      </c>
-      <c r="AW45">
-        <v>6</v>
-      </c>
-      <c r="AX45">
-        <v>0</v>
-      </c>
-      <c r="AY45">
-        <v>0</v>
-      </c>
-      <c r="AZ45">
-        <v>0</v>
-      </c>
-      <c r="BA45">
-        <v>0</v>
-      </c>
-      <c r="BB45">
-        <v>0</v>
-      </c>
-      <c r="BC45">
-        <v>0</v>
-      </c>
-      <c r="BD45">
-        <v>0</v>
-      </c>
-      <c r="BE45">
-        <v>0</v>
-      </c>
-      <c r="BF45">
-        <v>0</v>
-      </c>
-      <c r="BG45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ46">
-        <v>2</v>
-      </c>
-      <c r="AK46">
-        <v>0</v>
-      </c>
-      <c r="AL46">
+      <c r="AK48">
         <v>4</v>
-      </c>
-      <c r="AM46">
-        <v>4</v>
-      </c>
-      <c r="AN46">
-        <v>4</v>
-      </c>
-      <c r="AO46">
-        <v>4</v>
-      </c>
-      <c r="AP46">
-        <v>2</v>
-      </c>
-      <c r="AQ46">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>4</v>
-      </c>
-      <c r="AS46">
-        <v>4</v>
-      </c>
-      <c r="AT46">
-        <v>0</v>
-      </c>
-      <c r="AU46">
-        <v>0</v>
-      </c>
-      <c r="AV46">
-        <v>0</v>
-      </c>
-      <c r="AW46">
-        <v>0</v>
-      </c>
-      <c r="AX46">
-        <v>0</v>
-      </c>
-      <c r="AY46">
-        <v>0</v>
-      </c>
-      <c r="AZ46">
-        <v>0</v>
-      </c>
-      <c r="BA46">
-        <v>0</v>
-      </c>
-      <c r="BB46">
-        <v>0</v>
-      </c>
-      <c r="BC46">
-        <v>0</v>
-      </c>
-      <c r="BD46">
-        <v>0</v>
-      </c>
-      <c r="BE46">
-        <v>0</v>
-      </c>
-      <c r="BF46">
-        <v>0</v>
-      </c>
-      <c r="BG46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>6</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ47">
-        <v>2</v>
-      </c>
-      <c r="AK47">
-        <v>0</v>
-      </c>
-      <c r="AL47">
-        <v>4</v>
-      </c>
-      <c r="AM47">
-        <v>0</v>
-      </c>
-      <c r="AN47">
-        <v>4</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
-      </c>
-      <c r="AP47">
-        <v>2</v>
-      </c>
-      <c r="AQ47">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>4</v>
-      </c>
-      <c r="AS47">
-        <v>0</v>
-      </c>
-      <c r="AT47">
-        <v>0</v>
-      </c>
-      <c r="AU47">
-        <v>0</v>
-      </c>
-      <c r="AV47">
-        <v>0</v>
-      </c>
-      <c r="AW47">
-        <v>0</v>
-      </c>
-      <c r="AX47">
-        <v>0</v>
-      </c>
-      <c r="AY47">
-        <v>0</v>
-      </c>
-      <c r="AZ47">
-        <v>0</v>
-      </c>
-      <c r="BA47">
-        <v>0</v>
-      </c>
-      <c r="BB47">
-        <v>0</v>
-      </c>
-      <c r="BC47">
-        <v>0</v>
-      </c>
-      <c r="BD47">
-        <v>0</v>
-      </c>
-      <c r="BE47">
-        <v>0</v>
-      </c>
-      <c r="BF47">
-        <v>0</v>
-      </c>
-      <c r="BG47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>7</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ48">
-        <v>2</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
       </c>
       <c r="AL48">
         <v>4</v>
@@ -4829,75 +4361,75 @@
         <v>4</v>
       </c>
       <c r="AN48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO48">
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH49">
+        <v>2</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
         <v>4</v>
-      </c>
-      <c r="AS48">
-        <v>4</v>
-      </c>
-      <c r="AT48">
-        <v>0</v>
-      </c>
-      <c r="AU48">
-        <v>0</v>
-      </c>
-      <c r="AV48">
-        <v>0</v>
-      </c>
-      <c r="AW48">
-        <v>0</v>
-      </c>
-      <c r="AX48">
-        <v>0</v>
-      </c>
-      <c r="AY48">
-        <v>0</v>
-      </c>
-      <c r="AZ48">
-        <v>0</v>
-      </c>
-      <c r="BA48">
-        <v>0</v>
-      </c>
-      <c r="BB48">
-        <v>0</v>
-      </c>
-      <c r="BC48">
-        <v>0</v>
-      </c>
-      <c r="BD48">
-        <v>0</v>
-      </c>
-      <c r="BE48">
-        <v>0</v>
-      </c>
-      <c r="BF48">
-        <v>0</v>
-      </c>
-      <c r="BG48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ49">
-        <v>2</v>
       </c>
       <c r="AK49">
         <v>0</v>
@@ -4909,19 +4441,19 @@
         <v>0</v>
       </c>
       <c r="AN49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO49">
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ49">
         <v>0</v>
       </c>
       <c r="AR49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AS49">
         <v>0</v>
@@ -4962,609 +4494,603 @@
       <c r="BE49">
         <v>0</v>
       </c>
-      <c r="BF49">
-        <v>0</v>
-      </c>
-      <c r="BG49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH50">
+        <v>2</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>2</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
+      <c r="AS50">
+        <v>0</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH51">
+        <v>2</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>2</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <v>0</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>0</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BE51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH52">
+        <v>5</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>5</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>0</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BE52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH53">
+        <v>5</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>5</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <v>0</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
+        <v>0</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>0</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH54">
+        <v>1</v>
+      </c>
+      <c r="AI54">
+        <v>1</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <v>0</v>
+      </c>
+      <c r="AX54">
+        <v>101</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <v>0</v>
+      </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
+      <c r="BD54">
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH55">
+        <v>1</v>
+      </c>
+      <c r="AI55">
+        <v>1</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
+        <v>1</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <v>0</v>
+      </c>
+      <c r="AX55">
+        <v>101</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>0</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH56">
+        <v>7</v>
+      </c>
+      <c r="AI56">
+        <v>7</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>7</v>
+      </c>
+      <c r="AO56">
+        <v>7</v>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>101</v>
+      </c>
+      <c r="AW56">
+        <v>101</v>
+      </c>
+      <c r="AX56">
+        <v>0</v>
+      </c>
+      <c r="AY56">
+        <v>0</v>
+      </c>
+      <c r="AZ56">
+        <v>0</v>
+      </c>
+      <c r="BA56">
+        <v>0</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>0</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AH57">
+        <v>8</v>
+      </c>
+      <c r="AI57">
+        <v>8</v>
+      </c>
+      <c r="AJ57">
         <v>9</v>
       </c>
-      <c r="B50" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ50">
-        <v>1</v>
-      </c>
-      <c r="AK50">
-        <v>0</v>
-      </c>
-      <c r="AL50">
-        <v>3</v>
-      </c>
-      <c r="AM50">
-        <v>3</v>
-      </c>
-      <c r="AN50">
-        <v>3</v>
-      </c>
-      <c r="AO50">
-        <v>3</v>
-      </c>
-      <c r="AP50">
-        <v>1</v>
-      </c>
-      <c r="AQ50">
-        <v>0</v>
-      </c>
-      <c r="AR50">
-        <v>3</v>
-      </c>
-      <c r="AS50">
-        <v>3</v>
-      </c>
-      <c r="AT50">
-        <v>3</v>
-      </c>
-      <c r="AU50">
-        <v>3</v>
-      </c>
-      <c r="AV50">
-        <v>6</v>
-      </c>
-      <c r="AW50">
-        <v>6</v>
-      </c>
-      <c r="AX50">
-        <v>0</v>
-      </c>
-      <c r="AY50">
-        <v>0</v>
-      </c>
-      <c r="AZ50">
-        <v>0</v>
-      </c>
-      <c r="BA50">
-        <v>0</v>
-      </c>
-      <c r="BB50">
-        <v>0</v>
-      </c>
-      <c r="BC50">
-        <v>0</v>
-      </c>
-      <c r="BD50">
-        <v>0</v>
-      </c>
-      <c r="BE50">
-        <v>0</v>
-      </c>
-      <c r="BF50">
-        <v>0</v>
-      </c>
-      <c r="BG50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>10</v>
-      </c>
-      <c r="B51" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ51">
-        <v>1</v>
-      </c>
-      <c r="AK51">
-        <v>1</v>
-      </c>
-      <c r="AL51">
-        <v>3</v>
-      </c>
-      <c r="AM51">
-        <v>3</v>
-      </c>
-      <c r="AN51">
-        <v>3</v>
-      </c>
-      <c r="AO51">
-        <v>3</v>
-      </c>
-      <c r="AP51">
-        <v>1</v>
-      </c>
-      <c r="AQ51">
-        <v>1</v>
-      </c>
-      <c r="AR51">
-        <v>3</v>
-      </c>
-      <c r="AS51">
-        <v>3</v>
-      </c>
-      <c r="AT51">
-        <v>3</v>
-      </c>
-      <c r="AU51">
-        <v>3</v>
-      </c>
-      <c r="AV51">
-        <v>6</v>
-      </c>
-      <c r="AW51">
-        <v>6</v>
-      </c>
-      <c r="AX51">
-        <v>0</v>
-      </c>
-      <c r="AY51">
-        <v>0</v>
-      </c>
-      <c r="AZ51">
-        <v>0</v>
-      </c>
-      <c r="BA51">
-        <v>0</v>
-      </c>
-      <c r="BB51">
-        <v>0</v>
-      </c>
-      <c r="BC51">
-        <v>0</v>
-      </c>
-      <c r="BD51">
-        <v>0</v>
-      </c>
-      <c r="BE51">
-        <v>0</v>
-      </c>
-      <c r="BF51">
-        <v>0</v>
-      </c>
-      <c r="BG51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>11</v>
-      </c>
-      <c r="B52" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ52">
-        <v>2</v>
-      </c>
-      <c r="AK52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
-        <v>4</v>
-      </c>
-      <c r="AM52">
-        <v>4</v>
-      </c>
-      <c r="AN52">
-        <v>4</v>
-      </c>
-      <c r="AO52">
-        <v>4</v>
-      </c>
-      <c r="AP52">
-        <v>2</v>
-      </c>
-      <c r="AQ52">
-        <v>0</v>
-      </c>
-      <c r="AR52">
-        <v>4</v>
-      </c>
-      <c r="AS52">
-        <v>4</v>
-      </c>
-      <c r="AT52">
-        <v>0</v>
-      </c>
-      <c r="AU52">
-        <v>0</v>
-      </c>
-      <c r="AV52">
-        <v>0</v>
-      </c>
-      <c r="AW52">
-        <v>0</v>
-      </c>
-      <c r="AX52">
-        <v>0</v>
-      </c>
-      <c r="AY52">
-        <v>0</v>
-      </c>
-      <c r="AZ52">
-        <v>0</v>
-      </c>
-      <c r="BA52">
-        <v>0</v>
-      </c>
-      <c r="BB52">
-        <v>0</v>
-      </c>
-      <c r="BC52">
-        <v>0</v>
-      </c>
-      <c r="BD52">
-        <v>0</v>
-      </c>
-      <c r="BE52">
-        <v>0</v>
-      </c>
-      <c r="BF52">
-        <v>0</v>
-      </c>
-      <c r="BG52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ53">
-        <v>2</v>
-      </c>
-      <c r="AK53">
-        <v>0</v>
-      </c>
-      <c r="AL53">
-        <v>4</v>
-      </c>
-      <c r="AM53">
-        <v>0</v>
-      </c>
-      <c r="AN53">
-        <v>4</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>2</v>
-      </c>
-      <c r="AQ53">
-        <v>0</v>
-      </c>
-      <c r="AR53">
-        <v>4</v>
-      </c>
-      <c r="AS53">
-        <v>0</v>
-      </c>
-      <c r="AT53">
-        <v>0</v>
-      </c>
-      <c r="AU53">
-        <v>0</v>
-      </c>
-      <c r="AV53">
-        <v>0</v>
-      </c>
-      <c r="AW53">
-        <v>0</v>
-      </c>
-      <c r="AX53">
-        <v>0</v>
-      </c>
-      <c r="AY53">
-        <v>0</v>
-      </c>
-      <c r="AZ53">
-        <v>0</v>
-      </c>
-      <c r="BA53">
-        <v>0</v>
-      </c>
-      <c r="BB53">
-        <v>0</v>
-      </c>
-      <c r="BC53">
-        <v>0</v>
-      </c>
-      <c r="BD53">
-        <v>0</v>
-      </c>
-      <c r="BE53">
-        <v>0</v>
-      </c>
-      <c r="BF53">
-        <v>0</v>
-      </c>
-      <c r="BG53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="AK57">
+        <v>9</v>
+      </c>
+      <c r="AL57">
+        <v>9</v>
+      </c>
+      <c r="AM57">
+        <v>9</v>
+      </c>
+      <c r="AN57">
+        <v>8</v>
+      </c>
+      <c r="AO57">
+        <v>8</v>
+      </c>
+      <c r="AP57">
+        <v>9</v>
+      </c>
+      <c r="AQ57">
+        <v>9</v>
+      </c>
+      <c r="AR57">
         <v>13</v>
       </c>
-      <c r="B54" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ54">
-        <v>2</v>
-      </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
-      <c r="AM54">
-        <v>0</v>
-      </c>
-      <c r="AN54">
-        <v>0</v>
-      </c>
-      <c r="AO54">
-        <v>0</v>
-      </c>
-      <c r="AP54">
-        <v>2</v>
-      </c>
-      <c r="AQ54">
-        <v>0</v>
-      </c>
-      <c r="AR54">
-        <v>0</v>
-      </c>
-      <c r="AS54">
-        <v>0</v>
-      </c>
-      <c r="AT54">
-        <v>0</v>
-      </c>
-      <c r="AU54">
-        <v>0</v>
-      </c>
-      <c r="AV54">
-        <v>0</v>
-      </c>
-      <c r="AW54">
-        <v>0</v>
-      </c>
-      <c r="AX54">
-        <v>0</v>
-      </c>
-      <c r="AY54">
-        <v>0</v>
-      </c>
-      <c r="AZ54">
-        <v>0</v>
-      </c>
-      <c r="BA54">
-        <v>0</v>
-      </c>
-      <c r="BB54">
-        <v>0</v>
-      </c>
-      <c r="BC54">
-        <v>0</v>
-      </c>
-      <c r="BD54">
-        <v>0</v>
-      </c>
-      <c r="BE54">
-        <v>0</v>
-      </c>
-      <c r="BF54">
-        <v>0</v>
-      </c>
-      <c r="BG54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>14</v>
-      </c>
-      <c r="B55" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ55">
-        <v>2</v>
-      </c>
-      <c r="AK55">
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
-      <c r="AM55">
-        <v>0</v>
-      </c>
-      <c r="AN55">
-        <v>0</v>
-      </c>
-      <c r="AO55">
-        <v>0</v>
-      </c>
-      <c r="AP55">
-        <v>2</v>
-      </c>
-      <c r="AQ55">
-        <v>0</v>
-      </c>
-      <c r="AR55">
-        <v>0</v>
-      </c>
-      <c r="AS55">
-        <v>0</v>
-      </c>
-      <c r="AT55">
-        <v>0</v>
-      </c>
-      <c r="AU55">
-        <v>0</v>
-      </c>
-      <c r="AV55">
-        <v>0</v>
-      </c>
-      <c r="AW55">
-        <v>0</v>
-      </c>
-      <c r="AX55">
-        <v>0</v>
-      </c>
-      <c r="AY55">
-        <v>0</v>
-      </c>
-      <c r="AZ55">
-        <v>0</v>
-      </c>
-      <c r="BA55">
-        <v>0</v>
-      </c>
-      <c r="BB55">
-        <v>0</v>
-      </c>
-      <c r="BC55">
-        <v>0</v>
-      </c>
-      <c r="BD55">
-        <v>0</v>
-      </c>
-      <c r="BE55">
-        <v>0</v>
-      </c>
-      <c r="BF55">
-        <v>0</v>
-      </c>
-      <c r="BG55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>15</v>
-      </c>
-      <c r="B56" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ56">
-        <v>5</v>
-      </c>
-      <c r="AK56">
-        <v>0</v>
-      </c>
-      <c r="AL56">
-        <v>0</v>
-      </c>
-      <c r="AM56">
-        <v>0</v>
-      </c>
-      <c r="AN56">
-        <v>0</v>
-      </c>
-      <c r="AO56">
-        <v>0</v>
-      </c>
-      <c r="AP56">
-        <v>5</v>
-      </c>
-      <c r="AQ56">
-        <v>0</v>
-      </c>
-      <c r="AR56">
-        <v>0</v>
-      </c>
-      <c r="AS56">
-        <v>0</v>
-      </c>
-      <c r="AT56">
-        <v>0</v>
-      </c>
-      <c r="AU56">
-        <v>0</v>
-      </c>
-      <c r="AV56">
-        <v>0</v>
-      </c>
-      <c r="AW56">
-        <v>0</v>
-      </c>
-      <c r="AX56">
-        <v>0</v>
-      </c>
-      <c r="AY56">
-        <v>0</v>
-      </c>
-      <c r="AZ56">
-        <v>0</v>
-      </c>
-      <c r="BA56">
-        <v>0</v>
-      </c>
-      <c r="BB56">
-        <v>0</v>
-      </c>
-      <c r="BC56">
-        <v>0</v>
-      </c>
-      <c r="BD56">
-        <v>0</v>
-      </c>
-      <c r="BE56">
-        <v>0</v>
-      </c>
-      <c r="BF56">
-        <v>0</v>
-      </c>
-      <c r="BG56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>16</v>
-      </c>
-      <c r="B57" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ57">
-        <v>5</v>
-      </c>
-      <c r="AK57">
-        <v>0</v>
-      </c>
-      <c r="AL57">
-        <v>0</v>
-      </c>
-      <c r="AM57">
-        <v>0</v>
-      </c>
-      <c r="AN57">
-        <v>0</v>
-      </c>
-      <c r="AO57">
-        <v>0</v>
-      </c>
-      <c r="AP57">
-        <v>5</v>
-      </c>
-      <c r="AQ57">
-        <v>0</v>
-      </c>
-      <c r="AR57">
-        <v>0</v>
-      </c>
       <c r="AS57">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AT57">
         <v>0</v>
@@ -5582,13 +5108,13 @@
         <v>0</v>
       </c>
       <c r="AY57">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AZ57">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="BA57">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="BB57">
         <v>0</v>
@@ -5602,49 +5128,49 @@
       <c r="BE57">
         <v>0</v>
       </c>
-      <c r="BF57">
-        <v>0</v>
-      </c>
-      <c r="BG57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+      <c r="AH58">
+        <v>8</v>
+      </c>
+      <c r="AI58">
+        <v>8</v>
       </c>
       <c r="AJ58">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AK58">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AL58">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AM58">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AN58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AO58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AR58">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AS58">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AT58">
         <v>0</v>
@@ -5662,13 +5188,13 @@
         <v>0</v>
       </c>
       <c r="AY58">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AZ58">
         <v>101</v>
       </c>
       <c r="BA58">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="BB58">
         <v>0</v>
@@ -5682,49 +5208,43 @@
       <c r="BE58">
         <v>0</v>
       </c>
-      <c r="BF58">
-        <v>0</v>
-      </c>
-      <c r="BG58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>18</v>
-      </c>
-      <c r="B59" t="s">
-        <v>48</v>
+    </row>
+    <row r="59" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AH59">
+        <v>8</v>
+      </c>
+      <c r="AI59">
+        <v>8</v>
       </c>
       <c r="AJ59">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AK59">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AL59">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AM59">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AN59">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AO59">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AR59">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AS59">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AT59">
         <v>0</v>
@@ -5742,13 +5262,13 @@
         <v>0</v>
       </c>
       <c r="AY59">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AZ59">
         <v>101</v>
       </c>
       <c r="BA59">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="BB59">
         <v>0</v>
@@ -5762,70 +5282,64 @@
       <c r="BE59">
         <v>0</v>
       </c>
-      <c r="BF59">
-        <v>0</v>
-      </c>
-      <c r="BG59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>19</v>
-      </c>
-      <c r="B60" t="s">
-        <v>49</v>
+    </row>
+    <row r="60" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>1</v>
       </c>
       <c r="AJ60">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK60">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AL60">
         <v>0</v>
       </c>
       <c r="AM60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN60">
         <v>0</v>
       </c>
       <c r="AO60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP60">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AQ60">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AR60">
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT60">
         <v>0</v>
       </c>
       <c r="AU60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV60">
         <v>0</v>
       </c>
       <c r="AW60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX60">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AY60">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AZ60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA60">
         <v>0</v>
@@ -5842,63 +5356,129 @@
       <c r="BE60">
         <v>0</v>
       </c>
-      <c r="BF60">
-        <v>0</v>
-      </c>
-      <c r="BG60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>20</v>
-      </c>
-      <c r="B61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>2</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>10</v>
+      </c>
+      <c r="AL61">
+        <v>0</v>
+      </c>
+      <c r="AM61">
+        <v>10</v>
+      </c>
+      <c r="AN61">
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <v>2</v>
+      </c>
+      <c r="AP61">
+        <v>0</v>
+      </c>
+      <c r="AQ61">
+        <v>10</v>
+      </c>
+      <c r="AR61">
+        <v>0</v>
+      </c>
+      <c r="AS61">
+        <v>11</v>
+      </c>
+      <c r="AT61">
+        <v>0</v>
+      </c>
+      <c r="AU61">
+        <v>2</v>
+      </c>
+      <c r="AV61">
+        <v>0</v>
+      </c>
+      <c r="AW61">
+        <v>2</v>
+      </c>
+      <c r="AX61">
+        <v>0</v>
+      </c>
+      <c r="AY61">
+        <v>0</v>
+      </c>
+      <c r="AZ61">
+        <v>12</v>
+      </c>
+      <c r="BA61">
+        <v>0</v>
+      </c>
+      <c r="BB61">
+        <v>0</v>
+      </c>
+      <c r="BC61">
+        <v>0</v>
+      </c>
+      <c r="BD61">
+        <v>0</v>
+      </c>
+      <c r="BE61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>2</v>
+      </c>
       <c r="AJ62">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK62">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL62">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AM62">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN62">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AO62">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AP62">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AQ62">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR62">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AS62">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AT62">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AU62">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AV62">
         <v>0</v>
       </c>
       <c r="AW62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX62">
         <v>0</v>
@@ -5907,16 +5487,16 @@
         <v>0</v>
       </c>
       <c r="AZ62">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA62">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="BB62">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="BC62">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="BD62">
         <v>0</v>
@@ -5924,55 +5504,49 @@
       <c r="BE62">
         <v>0</v>
       </c>
-      <c r="BF62">
-        <v>0</v>
-      </c>
-      <c r="BG62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>101</v>
-      </c>
-      <c r="B63" t="s">
-        <v>36</v>
+    </row>
+    <row r="63" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
       <c r="AJ63">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK63">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AL63">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AM63">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AN63">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AO63">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AP63">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AQ63">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AR63">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AS63">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AT63">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AU63">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AV63">
         <v>0</v>
@@ -5987,397 +5561,21 @@
         <v>0</v>
       </c>
       <c r="AZ63">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA63">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="BB63">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="BC63">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="BD63">
         <v>0</v>
       </c>
       <c r="BE63">
-        <v>0</v>
-      </c>
-      <c r="BF63">
-        <v>0</v>
-      </c>
-      <c r="BG63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AJ64">
-        <v>8</v>
-      </c>
-      <c r="AK64">
-        <v>8</v>
-      </c>
-      <c r="AL64">
-        <v>9</v>
-      </c>
-      <c r="AM64">
-        <v>9</v>
-      </c>
-      <c r="AN64">
-        <v>9</v>
-      </c>
-      <c r="AO64">
-        <v>9</v>
-      </c>
-      <c r="AP64">
-        <v>8</v>
-      </c>
-      <c r="AQ64">
-        <v>8</v>
-      </c>
-      <c r="AR64">
-        <v>9</v>
-      </c>
-      <c r="AS64">
-        <v>9</v>
-      </c>
-      <c r="AT64">
-        <v>13</v>
-      </c>
-      <c r="AU64">
-        <v>13</v>
-      </c>
-      <c r="AV64">
-        <v>0</v>
-      </c>
-      <c r="AW64">
-        <v>0</v>
-      </c>
-      <c r="AX64">
-        <v>0</v>
-      </c>
-      <c r="AY64">
-        <v>0</v>
-      </c>
-      <c r="AZ64">
-        <v>0</v>
-      </c>
-      <c r="BA64">
-        <v>101</v>
-      </c>
-      <c r="BB64">
-        <v>101</v>
-      </c>
-      <c r="BC64">
-        <v>101</v>
-      </c>
-      <c r="BD64">
-        <v>0</v>
-      </c>
-      <c r="BE64">
-        <v>0</v>
-      </c>
-      <c r="BF64">
-        <v>0</v>
-      </c>
-      <c r="BG64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="36:59" x14ac:dyDescent="0.25">
-      <c r="AJ65">
-        <v>0</v>
-      </c>
-      <c r="AK65">
-        <v>1</v>
-      </c>
-      <c r="AL65">
-        <v>0</v>
-      </c>
-      <c r="AM65">
-        <v>3</v>
-      </c>
-      <c r="AN65">
-        <v>0</v>
-      </c>
-      <c r="AO65">
-        <v>3</v>
-      </c>
-      <c r="AP65">
-        <v>0</v>
-      </c>
-      <c r="AQ65">
-        <v>1</v>
-      </c>
-      <c r="AR65">
-        <v>0</v>
-      </c>
-      <c r="AS65">
-        <v>3</v>
-      </c>
-      <c r="AT65">
-        <v>0</v>
-      </c>
-      <c r="AU65">
-        <v>3</v>
-      </c>
-      <c r="AV65">
-        <v>0</v>
-      </c>
-      <c r="AW65">
-        <v>1</v>
-      </c>
-      <c r="AX65">
-        <v>0</v>
-      </c>
-      <c r="AY65">
-        <v>1</v>
-      </c>
-      <c r="AZ65">
-        <v>0</v>
-      </c>
-      <c r="BA65">
-        <v>0</v>
-      </c>
-      <c r="BB65">
-        <v>3</v>
-      </c>
-      <c r="BC65">
-        <v>0</v>
-      </c>
-      <c r="BD65">
-        <v>0</v>
-      </c>
-      <c r="BE65">
-        <v>0</v>
-      </c>
-      <c r="BF65">
-        <v>0</v>
-      </c>
-      <c r="BG65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="36:59" x14ac:dyDescent="0.25">
-      <c r="AJ66">
-        <v>0</v>
-      </c>
-      <c r="AK66">
-        <v>2</v>
-      </c>
-      <c r="AL66">
-        <v>0</v>
-      </c>
-      <c r="AM66">
-        <v>10</v>
-      </c>
-      <c r="AN66">
-        <v>0</v>
-      </c>
-      <c r="AO66">
-        <v>10</v>
-      </c>
-      <c r="AP66">
-        <v>0</v>
-      </c>
-      <c r="AQ66">
-        <v>2</v>
-      </c>
-      <c r="AR66">
-        <v>0</v>
-      </c>
-      <c r="AS66">
-        <v>10</v>
-      </c>
-      <c r="AT66">
-        <v>0</v>
-      </c>
-      <c r="AU66">
-        <v>11</v>
-      </c>
-      <c r="AV66">
-        <v>0</v>
-      </c>
-      <c r="AW66">
-        <v>2</v>
-      </c>
-      <c r="AX66">
-        <v>0</v>
-      </c>
-      <c r="AY66">
-        <v>2</v>
-      </c>
-      <c r="AZ66">
-        <v>0</v>
-      </c>
-      <c r="BA66">
-        <v>0</v>
-      </c>
-      <c r="BB66">
-        <v>12</v>
-      </c>
-      <c r="BC66">
-        <v>0</v>
-      </c>
-      <c r="BD66">
-        <v>0</v>
-      </c>
-      <c r="BE66">
-        <v>0</v>
-      </c>
-      <c r="BF66">
-        <v>0</v>
-      </c>
-      <c r="BG66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="36:59" x14ac:dyDescent="0.25">
-      <c r="AJ67">
-        <v>0</v>
-      </c>
-      <c r="AK67">
-        <v>2</v>
-      </c>
-      <c r="AL67">
-        <v>0</v>
-      </c>
-      <c r="AM67">
-        <v>10</v>
-      </c>
-      <c r="AN67">
-        <v>0</v>
-      </c>
-      <c r="AO67">
-        <v>10</v>
-      </c>
-      <c r="AP67">
-        <v>0</v>
-      </c>
-      <c r="AQ67">
-        <v>2</v>
-      </c>
-      <c r="AR67">
-        <v>0</v>
-      </c>
-      <c r="AS67">
-        <v>10</v>
-      </c>
-      <c r="AT67">
-        <v>0</v>
-      </c>
-      <c r="AU67">
-        <v>11</v>
-      </c>
-      <c r="AV67">
-        <v>0</v>
-      </c>
-      <c r="AW67">
-        <v>2</v>
-      </c>
-      <c r="AX67">
-        <v>0</v>
-      </c>
-      <c r="AY67">
-        <v>2</v>
-      </c>
-      <c r="AZ67">
-        <v>0</v>
-      </c>
-      <c r="BA67">
-        <v>0</v>
-      </c>
-      <c r="BB67">
-        <v>12</v>
-      </c>
-      <c r="BC67">
-        <v>0</v>
-      </c>
-      <c r="BD67">
-        <v>0</v>
-      </c>
-      <c r="BE67">
-        <v>0</v>
-      </c>
-      <c r="BF67">
-        <v>0</v>
-      </c>
-      <c r="BG67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="36:59" x14ac:dyDescent="0.25">
-      <c r="AJ68">
-        <v>0</v>
-      </c>
-      <c r="AK68">
-        <v>0</v>
-      </c>
-      <c r="AL68">
-        <v>0</v>
-      </c>
-      <c r="AM68">
-        <v>0</v>
-      </c>
-      <c r="AN68">
-        <v>0</v>
-      </c>
-      <c r="AO68">
-        <v>0</v>
-      </c>
-      <c r="AP68">
-        <v>0</v>
-      </c>
-      <c r="AQ68">
-        <v>0</v>
-      </c>
-      <c r="AR68">
-        <v>0</v>
-      </c>
-      <c r="AS68">
-        <v>0</v>
-      </c>
-      <c r="AT68">
-        <v>0</v>
-      </c>
-      <c r="AU68">
-        <v>11</v>
-      </c>
-      <c r="AV68">
-        <v>0</v>
-      </c>
-      <c r="AW68">
-        <v>0</v>
-      </c>
-      <c r="AX68">
-        <v>0</v>
-      </c>
-      <c r="AY68">
-        <v>0</v>
-      </c>
-      <c r="AZ68">
-        <v>0</v>
-      </c>
-      <c r="BA68">
-        <v>0</v>
-      </c>
-      <c r="BB68">
-        <v>12</v>
-      </c>
-      <c r="BC68">
-        <v>0</v>
-      </c>
-      <c r="BD68">
-        <v>0</v>
-      </c>
-      <c r="BE68">
-        <v>0</v>
-      </c>
-      <c r="BF68">
-        <v>0</v>
-      </c>
-      <c r="BG68">
         <v>0</v>
       </c>
     </row>
